--- a/Task One/Test2/Result/Test2_summary.xlsx
+++ b/Task One/Test2/Result/Test2_summary.xlsx
@@ -10,15 +10,14 @@
     <sheet name="Main" sheetId="1" r:id="rId1"/>
     <sheet name="CH0" sheetId="2" r:id="rId2"/>
     <sheet name="CH1" sheetId="3" r:id="rId3"/>
-    <sheet name="CH2" sheetId="4" r:id="rId4"/>
-    <sheet name="CH3" sheetId="5" r:id="rId5"/>
+    <sheet name="CH3" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="47">
   <si>
     <t>Channel</t>
   </si>
@@ -1359,102 +1358,6 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AA1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:27">
-      <c r="A1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AA4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
